--- a/demo_excel.xlsx
+++ b/demo_excel.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.5245819290668645</v>
+        <v>-5</v>
       </c>
       <c r="F2" t="n">
-        <v>7791404.009192132</v>
+        <v>7.3</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.0761915362017382</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>3167180.736634017</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.8685097006288086</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="n">
-        <v>9589766.961382903</v>
+        <v>9</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.4270108385271339</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="n">
-        <v>8949415.186759699</v>
+        <v>8</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2532553652693274</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>937163.4437525265</v>
+        <v>9.4</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.6815163691108189</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="n">
-        <v>949579.8802226464</v>
+        <v>12.7</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0071911579626532</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7268426.906552773</v>
+        <v>7.1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6744974720041214</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>7517014.782897247</v>
+        <v>7.67</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-1.184100865681898</v>
+        <v>-1</v>
       </c>
       <c r="F10" t="n">
-        <v>1920959.542349222</v>
+        <v>19</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1.580369259581115</v>
+        <v>-1</v>
       </c>
       <c r="F11" t="n">
-        <v>8456240.61987255</v>
+        <v>8</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
